--- a/example/cpk_example.xlsx
+++ b/example/cpk_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyf\Desktop\Data_Analysis_v0.6\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E28FE-13F8-43F8-B25E-F4E5EC9827BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CD538F-969C-4E1D-B331-C40D754D645C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="21600" windowHeight="11460" xr2:uid="{59AD5D17-60B5-4949-8B79-D1CD96ECCFCE}"/>
+    <workbookView xWindow="15705" yWindow="4035" windowWidth="21600" windowHeight="11460" xr2:uid="{59AD5D17-60B5-4949-8B79-D1CD96ECCFCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Parametric</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>Test6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B2F442-5B46-49D8-B4DD-1796D6453989}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,6 +476,12 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
